--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,29 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>737557645</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1475115</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>This $600 Gaming PC Build Plays Anything</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,6 +517,29 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-12-09</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>690601200</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1381202</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>The ULTIMATE AMD Gaming PC Build 2026!</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,6 +540,29 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>437707311</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2501184</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Budget upgradable gaming PC ! #gigabyte #redlinetech #srilanka LK 🇱🇰</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,6 +563,29 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>743759039</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1750021</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>INSANE RTX 5090 Gaming PC Build 😈</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,6 +586,29 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>429264955</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1907844</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>The ULTIMATE AMD Gaming PC Build 2026!</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,6 +609,29 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-12-13</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>675298826</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1588938</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Two Ways to Build a $750 Gaming PC</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,6 +632,29 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>709719672</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1419439</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Two Ways to Build a $750 Gaming PC</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -655,6 +655,29 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>613293387</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1887056</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Building the ULTIMATE Gaming PC 2025! 😍 [ft. RTX 5090 &amp;amp; Ryzen 9950X3D!]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,6 +678,29 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>899659641</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1799319</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Building the ULTIMATE Gaming PC 2025! 😍 [ft. RTX 5090 &amp;amp; Ryzen 9950X3D!]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -701,6 +701,29 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>111585965</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1487812</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>The ULTIMATE $2000 Gaming PC Build! 😲</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -724,6 +724,29 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-12-18</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>60287817</v>
+      </c>
+      <c r="D14" t="n">
+        <v>803837</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>The ULTIMATE $2000 Gaming PC Build 2026! 😲</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,6 +747,29 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>741121028</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1482242</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Build the Best RTX 5070 TI Gaming PC for $2000 - 2026</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,6 +770,29 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>40530054</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1621202</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Build the Best RTX 5070 TI Gaming PC for $2000 - 2026</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -793,6 +793,29 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-12-21</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>40293582</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1611743</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Best $1000 Gaming PC You Can ACTUALLY Build Right Now! 👀</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -816,6 +816,29 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-12-22</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>877607384</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1755214</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Best $1000 Gaming PC You Can ACTUALLY Build Right Now! 👀</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -839,6 +839,29 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-12-23</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>3512907</v>
+      </c>
+      <c r="D19" t="n">
+        <v>140516</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Best $1000 Gaming PC You Can ACTUALLY Build Right Now! 👀</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -862,6 +862,29 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-12-24</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>832258824</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1664517</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>The ULTIMATE $1500 Gaming PC Build 2026! 🥳</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -885,6 +885,29 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-12-25</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>506082403</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1840299</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>The ULTIMATE $1500 Gaming PC Build 2026! 🥳</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -908,6 +908,29 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>200776706</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1606213</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>The ULTIMATE $1500 Gaming PC Build 2026! 🥳</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -931,6 +931,29 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>829437725</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1658875</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>The ULTIMATE $1500 Gaming PC Build 2026! 🥳</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,6 +954,29 @@
         </is>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>631575171</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1684200</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>The ULTIMATE $1500 Gaming PC Build 2026! 🥳</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -977,6 +977,29 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>3853594</v>
+      </c>
+      <c r="D25" t="n">
+        <v>154143</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Building the ULTIMATE Gaming PC 2026! 😍 [ft. 9800X3D &amp;amp; RTX 5080]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1000,6 +1000,29 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>849747517</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1699495</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Building the ULTIMATE Gaming PC 2026! 😍 [ft. 9800X3D &amp;amp; RTX 5080]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1023,6 +1023,29 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>806815122</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1698558</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Building the ULTIMATE Gaming PC 2026! 😍 [ft. 9800X3D &amp;amp; RTX 5080]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1046,6 +1046,29 @@
         </is>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>3358641</v>
+      </c>
+      <c r="D28" t="n">
+        <v>134345</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>$2000 Gaming PC - Classic LTT Build Guide (2026)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1069,6 +1069,29 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>317797686</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1412434</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>$2000 Gaming PC - Classic LTT Build Guide (2026)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1092,6 +1092,29 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>262859299</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1168263</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ULTIMATE Gaming PC Build 2026! 😍 [ASUS Matrix RTX 5090 &amp;amp; 9950X3D]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1115,6 +1115,29 @@
         </is>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>750301838</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1765416</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ULTIMATE Gaming PC Build 2026! 😍 [ASUS Matrix RTX 5090 &amp;amp; 9950X3D]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1138,6 +1138,29 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2026-01-05</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>813530305</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1627060</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>$2000 RX 9070 XT Gaming PC Build 2025! 👀 [Full Build Guide w/ Benchmarks]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1161,6 +1161,29 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>814471830</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1628943</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>$2000 RX 9070 XT Gaming PC Build 2025! 👀 [Full Build Guide w/ Benchmarks]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1184,6 +1184,29 @@
         </is>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>524598128</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1614148</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>$2000 RX 9070 XT Gaming PC Build 2025! 👀 [Full Build Guide w/ Benchmarks]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1207,6 +1207,29 @@
         </is>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2026-01-08</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>851064774</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1702129</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>$650 1440p READY Gaming PC Build Guide</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1230,6 +1230,29 @@
         </is>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>50132305</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2005292</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Building an AWESOME 4K Gaming PC 2026! 😃 [Full Build Guide w/ Benchmarks]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1253,6 +1253,29 @@
         </is>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>724538125</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1449076</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>A Realistic $1000 Gaming PC Build for 2026</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1276,6 +1276,29 @@
         </is>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>785194522</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1570389</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>A Realistic $1000 Gaming PC Build for 2026</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1299,6 +1299,29 @@
         </is>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2026-01-12</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>593019480</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1824675</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>A Realistic $1000 Gaming PC Build for 2026</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1322,6 +1322,29 @@
         </is>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>754862509</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1509725</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>A Realistic $1000 Gaming PC Build for 2026</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1345,6 +1345,29 @@
         </is>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>739170842</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1556149</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>A Realistic $1000 Gaming PC Build for 2026</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1368,6 +1368,29 @@
         </is>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>338005974</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1229112</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>The BEST Gaming PC Builds RIGHT NOW! 👀 (2026)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1391,6 +1391,29 @@
         </is>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>71523820</v>
+      </c>
+      <c r="D43" t="n">
+        <v>953650</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Build the Most Powerful $1000 Gaming PC - 2026</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1414,6 +1414,29 @@
         </is>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>16993996</v>
+      </c>
+      <c r="D44" t="n">
+        <v>679759</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Build the Most Powerful $1000 Gaming PC - 2026</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1437,6 +1437,29 @@
         </is>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2026-01-18</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>22953275</v>
+      </c>
+      <c r="D45" t="n">
+        <v>918131</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Build the Most Powerful $1000 Gaming PC - 2026</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1460,6 +1460,29 @@
         </is>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>486296702</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1768351</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Build the Most Powerful $1000 Gaming PC - 2026</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1483,6 +1483,29 @@
         </is>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>802878754</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1605757</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>22 minutes of BUILDING a DREAM GAMING PC | LIAN LI POV BUILD | O11 VISION COMPACT + 9800X3D + 5070Ti</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1506,6 +1506,29 @@
         </is>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>788991887</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1661035</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>22 minutes of BUILDING a DREAM GAMING PC | LIAN LI POV BUILD | O11 VISION COMPACT + 9800X3D + 5070Ti</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1529,6 +1529,29 @@
         </is>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>770994233</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1814104</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>22 minutes of BUILDING a DREAM GAMING PC | LIAN LI POV BUILD | O11 VISION COMPACT + 9800X3D + 5070Ti</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1552,6 +1552,29 @@
         </is>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>848478867</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1696957</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>The ULTIMATE $2500 Gaming PC Build 2026!</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1575,6 +1575,29 @@
         </is>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>826043405</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1652086</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>The ULTIMATE $2500 Gaming PC Build 2026!</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1598,6 +1598,29 @@
         </is>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>701656161</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1650955</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>The ULTIMATE $2500 Gaming PC Build 2026!</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1621,6 +1621,29 @@
         </is>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>3960584</v>
+      </c>
+      <c r="D53" t="n">
+        <v>158423</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>The ULTIMATE $2500 Gaming PC Build 2026!</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1644,6 +1644,29 @@
         </is>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>16895910</v>
+      </c>
+      <c r="D54" t="n">
+        <v>675836</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>The Mid-Range Gaming PC Template for 2026 ($1000-$1500)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1667,6 +1667,29 @@
         </is>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>160092976</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1280743</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>The ULTIMATE $2500 Gaming PC Build 2026!</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1690,6 +1690,29 @@
         </is>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>76737835</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1023171</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Best Ryzen 9850X3D Gaming PC Build 🛑 Best GPU, RAM, Motherboard &amp;amp; More</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1713,6 +1713,29 @@
         </is>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>4129267</v>
+      </c>
+      <c r="D57" t="n">
+        <v>165170</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Best VALUE $1400 Gaming PC Build Right Now! 👀</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1736,6 +1736,29 @@
         </is>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>156096852</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1248774</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Best VALUE $1400 Gaming PC Build Right Now! 👀</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1759,6 +1759,29 @@
         </is>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>259129207</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1480738</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>The ULTIMATE $2500 Gaming PC Build 2026!</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1782,6 +1782,29 @@
         </is>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>981637520</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1963275</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>The ULTIMATE $2500 Gaming PC Build 2026!</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1805,6 +1805,29 @@
         </is>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>58724546</v>
+      </c>
+      <c r="D61" t="n">
+        <v>782993</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>How to Build a $1,400 Gaming PC Build (Ryzen 7 5800XT and RX 9060 XT)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1828,6 +1828,29 @@
         </is>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2026-02-04</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>470034609</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1709216</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>This Gaming PC Build Has a Special Purpose...</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1851,6 +1851,29 @@
         </is>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>712603548</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1425207</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>A Realistic $800 Gaming PC Build in 2026</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1874,6 +1874,29 @@
         </is>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>488294913</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2170199</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>A Realistic $800 Gaming PC Build in 2026</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1897,6 +1897,29 @@
         </is>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>876687470</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1753374</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>A Realistic $750 Gaming PC Build for 2026</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1920,6 +1920,29 @@
         </is>
       </c>
     </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>792819161</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1669092</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>A Realistic $750 Gaming PC Build for 2026</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1943,6 +1943,29 @@
         </is>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>436941373</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1588877</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>A Realistic $750 Gaming PC Build for 2026</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1966,6 +1966,29 @@
         </is>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>63862681</v>
+      </c>
+      <c r="D68" t="n">
+        <v>851502</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>A Realistic $1000 Gaming PC Build for 2026</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1989,6 +1989,29 @@
         </is>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>5357726</v>
+      </c>
+      <c r="D69" t="n">
+        <v>214309</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Gaming PCs are Expensive, Build This in 2026</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2012,6 +2012,29 @@
         </is>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>333158082</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1480702</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>The $550 Gaming PC You Should Build</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2035,6 +2035,29 @@
         </is>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>281275737</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1607289</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>The $550 Gaming PC You Should Build</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2058,6 +2058,29 @@
         </is>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>367349031</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1335814</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Re-Building my Ultimate Dream Gaming PC - BigRed V1 Reborn</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2081,6 +2081,29 @@
         </is>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2026-02-15</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>128913507</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1031308</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Building MSI Godlike Gaming PC for 2026 (RTX 5090 Lightning)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2104,6 +2104,29 @@
         </is>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>773047342</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1546094</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Building a Gaming PC in 2026 is DIFFERENT</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2127,6 +2127,29 @@
         </is>
       </c>
     </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>869385985</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1830286</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Building a Gaming PC in 2026 is DIFFERENT</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2150,6 +2150,29 @@
         </is>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2026-02-18</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>766991247</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1533982</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Building a Gaming PC in 2026 is DIFFERENT</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2173,6 +2173,29 @@
         </is>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>40883397</v>
+      </c>
+      <c r="D77" t="n">
+        <v>545111</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Building a Gaming PC in 2026 is DIFFERENT</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2196,6 +2196,29 @@
         </is>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>46568958</v>
+      </c>
+      <c r="D78" t="n">
+        <v>620919</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Building The DREAM ITX Gaming PC! 😍</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2219,6 +2219,29 @@
         </is>
       </c>
     </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>782590983</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1565181</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Cheapest Possible AM5 Gaming PC in 2026</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2242,6 +2242,29 @@
         </is>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>331906360</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1475139</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>The Best $1000 Gaming PC Build for 2026</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2265,6 +2265,29 @@
         </is>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>352440473</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1566402</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>The Best $1000 Gaming PC Build for 2026</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2288,6 +2288,29 @@
         </is>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>117034814</v>
+      </c>
+      <c r="D82" t="n">
+        <v>936278</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>The Best $1000 Gaming PC Build for 2026</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2311,6 +2311,29 @@
         </is>
       </c>
     </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>827726667</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1655453</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>The Best $1000 Gaming PC Build for 2026</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2334,6 +2334,29 @@
         </is>
       </c>
     </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>546481274</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1681480</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>The Best $1000 Gaming PC Build for 2026</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2357,6 +2357,29 @@
         </is>
       </c>
     </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>295279584</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1687311</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>The Best $1000 Gaming PC Build for 2026</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2380,6 +2380,29 @@
         </is>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>26880198</v>
+      </c>
+      <c r="D86" t="n">
+        <v>358402</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>The Best $1000 Gaming PC Build for 2026</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/youtube_diy_sentiment.xlsx
+++ b/data/youtube_diy_sentiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2403,6 +2403,29 @@
         </is>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2026-03-01</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Gaming PC Build</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>47195333</v>
+      </c>
+      <c r="D87" t="n">
+        <v>629271</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>The Best $1000 Gaming PC Build for 2026</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
